--- a/Pic_Url/tb_datas.xlsx
+++ b/Pic_Url/tb_datas.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="UserSets" sheetId="2" r:id="rId1"/>
-    <sheet name="CourseSets" sheetId="3" r:id="rId2"/>
-    <sheet name="TeacherCourseSets" sheetId="4" r:id="rId3"/>
-    <sheet name="TeacherSets" sheetId="5" r:id="rId4"/>
-    <sheet name="BookSets" sheetId="6" r:id="rId5"/>
+    <sheet name="GoodsInfoSets" sheetId="7" r:id="rId2"/>
+    <sheet name="CourseSets" sheetId="3" r:id="rId3"/>
+    <sheet name="TeacherCourseSets" sheetId="4" r:id="rId4"/>
+    <sheet name="TeacherSets" sheetId="5" r:id="rId5"/>
+    <sheet name="BookSets" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
   <si>
     <t>349911680@qq.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -648,6 +649,90 @@
       </rPr>
       <t>企业任职。</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机网络笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机网络课程笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>349911680@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机网络二手书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>compute_cs.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计算机网络二手书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二手书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作系统二手书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>os_concepts.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>操作系统二手书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Jeff@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据结构二手书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售完成</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学英语二手书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Great</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二手书</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1024,7 +1109,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1152,6 +1237,178 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="19.875" customWidth="1"/>
+    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="4" max="4" width="13.375" customWidth="1"/>
+    <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="8" max="8" width="19.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C1">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F1" s="5">
+        <v>43162.51667824074</v>
+      </c>
+      <c r="G1" t="s">
+        <v>51</v>
+      </c>
+      <c r="J1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="5">
+        <v>42923</v>
+      </c>
+      <c r="G2" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C3">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F3" s="5">
+        <v>42948</v>
+      </c>
+      <c r="G3" t="s">
+        <v>62</v>
+      </c>
+      <c r="J3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="5">
+        <v>43160</v>
+      </c>
+      <c r="G4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="J4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="5">
+        <v>42979</v>
+      </c>
+      <c r="G5" t="s">
+        <v>65</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="I5" t="s">
+        <v>67</v>
+      </c>
+      <c r="J5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+    <hyperlink ref="A2" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A4" r:id="rId4"/>
+    <hyperlink ref="H4" r:id="rId5"/>
+    <hyperlink ref="A5" r:id="rId6"/>
+    <hyperlink ref="H5" r:id="rId7"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
@@ -1258,7 +1515,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -1316,7 +1573,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H4"/>
   <sheetViews>
@@ -1448,7 +1705,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Pic_Url/tb_datas.xlsx
+++ b/Pic_Url/tb_datas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="86">
   <si>
     <t>349911680@qq.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -733,6 +733,74 @@
   </si>
   <si>
     <t>二手书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大学英语笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据机构笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>审核中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>笔记</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法导论二手书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二手书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网球拍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>00.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>七成新网球拍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运动器材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>篮球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5成新品牌篮球</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1110,7 +1178,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1238,10 +1306,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1250,6 +1318,7 @@
     <col min="2" max="2" width="16" customWidth="1"/>
     <col min="4" max="4" width="13.375" customWidth="1"/>
     <col min="5" max="5" width="20.125" customWidth="1"/>
+    <col min="6" max="6" width="11.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="19.875" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1390,6 +1459,136 @@
       </c>
       <c r="J5" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F6" s="5">
+        <v>42498</v>
+      </c>
+      <c r="G6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E7" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="5">
+        <v>42499</v>
+      </c>
+      <c r="G7" t="s">
+        <v>74</v>
+      </c>
+      <c r="J7" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="5">
+        <v>43018</v>
+      </c>
+      <c r="G8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9">
+        <v>50</v>
+      </c>
+      <c r="D9" t="s">
+        <v>81</v>
+      </c>
+      <c r="E9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F9" s="5">
+        <v>43070</v>
+      </c>
+      <c r="G9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>84</v>
+      </c>
+      <c r="C10">
+        <v>20</v>
+      </c>
+      <c r="D10" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" t="s">
+        <v>85</v>
+      </c>
+      <c r="F10" s="5">
+        <v>43081</v>
+      </c>
+      <c r="G10" t="s">
+        <v>78</v>
+      </c>
+      <c r="J10" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1402,9 +1601,14 @@
     <hyperlink ref="H4" r:id="rId5"/>
     <hyperlink ref="A5" r:id="rId6"/>
     <hyperlink ref="H5" r:id="rId7"/>
+    <hyperlink ref="A6" r:id="rId8"/>
+    <hyperlink ref="A7" r:id="rId9"/>
+    <hyperlink ref="A8" r:id="rId10"/>
+    <hyperlink ref="A9" r:id="rId11"/>
+    <hyperlink ref="A10" r:id="rId12"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId8"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId13"/>
 </worksheet>
 </file>
 

--- a/Pic_Url/tb_datas.xlsx
+++ b/Pic_Url/tb_datas.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="84">
   <si>
     <t>349911680@qq.com</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -664,10 +664,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>审核中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>笔记</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -688,10 +684,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>审核中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>二手书</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -756,10 +748,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>审核中</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>笔记</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -802,6 +790,9 @@
   <si>
     <t>5成新品牌篮球</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待审核</t>
   </si>
 </sst>
 </file>
@@ -1309,7 +1300,7 @@
   <dimension ref="A1:J10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1342,36 +1333,36 @@
         <v>43162.51667824074</v>
       </c>
       <c r="G1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" t="s">
         <v>51</v>
-      </c>
-      <c r="J1" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B2" t="s">
         <v>53</v>
-      </c>
-      <c r="B2" t="s">
-        <v>54</v>
       </c>
       <c r="C2">
         <v>15</v>
       </c>
       <c r="D2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E2" t="s">
         <v>55</v>
-      </c>
-      <c r="E2" t="s">
-        <v>56</v>
       </c>
       <c r="F2" s="5">
         <v>42923</v>
       </c>
       <c r="G2" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
       <c r="J2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -1379,33 +1370,33 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C3">
         <v>15</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F3" s="5">
         <v>42948</v>
       </c>
       <c r="G3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C4">
         <v>15</v>
@@ -1414,27 +1405,27 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F4" s="5">
         <v>43160</v>
       </c>
       <c r="G4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="J4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C5">
         <v>15</v>
@@ -1443,22 +1434,22 @@
         <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F5" s="5">
         <v>42979</v>
       </c>
       <c r="G5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="J5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -1466,25 +1457,25 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F6" s="5">
         <v>42498</v>
       </c>
       <c r="G6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.2">
@@ -1492,25 +1483,25 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C7">
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E7" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F7" s="5">
         <v>42499</v>
       </c>
       <c r="G7" t="s">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J7" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.2">
@@ -1518,25 +1509,25 @@
         <v>9</v>
       </c>
       <c r="B8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C8">
         <v>15</v>
       </c>
       <c r="D8" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="F8" s="5">
         <v>43018</v>
       </c>
       <c r="G8" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J8" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.2">
@@ -1544,25 +1535,25 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C9">
         <v>50</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F9" s="5">
         <v>43070</v>
       </c>
       <c r="G9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J9" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.2">
@@ -1570,25 +1561,25 @@
         <v>9</v>
       </c>
       <c r="B10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C10">
         <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E10" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F10" s="5">
         <v>43081</v>
       </c>
       <c r="G10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
